--- a/跨海一路（K2+720~K2+883.312）/标高放样单.xlsx
+++ b/跨海一路（K2+720~K2+883.312）/标高放样单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>右22m</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-22</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1963,72 +1967,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="72">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="16" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2059,25 +1997,52 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="79" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2089,15 +2054,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2140,18 +2096,9 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2161,55 +2108,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2267,26 +2172,125 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="120">
@@ -2799,8 +2803,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD150"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2821,1888 +2825,1890 @@
   <sheetData>
     <row r="1" spans="1:32" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:32" ht="12" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
     </row>
     <row r="3" spans="1:32" ht="27">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
     </row>
     <row r="4" spans="1:32" ht="15.95" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
     </row>
     <row r="5" spans="1:32" ht="45" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="108" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="111" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="112" t="s">
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="113"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="80"/>
     </row>
     <row r="6" spans="1:32" ht="34.5" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55" t="s">
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="58"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="42"/>
     </row>
     <row r="7" spans="1:32" ht="30" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="64" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="66" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="68"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="52"/>
     </row>
     <row r="8" spans="1:32" ht="23.25" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="73" t="s">
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74" t="s">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="75"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="56"/>
     </row>
     <row r="9" spans="1:32" ht="18" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="76" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="82" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="115" t="s">
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="89"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="111"/>
     </row>
     <row r="10" spans="1:32" ht="6" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="92"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="114"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="116"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="28"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="119"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="31"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="119"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="31"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="119"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="31"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="119"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="31"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="119"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="31"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="119"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="31"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="119"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="31"/>
     </row>
     <row r="19" spans="1:32" ht="8.25" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="119"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="31"/>
     </row>
     <row r="20" spans="1:32" ht="8.25" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="119"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="31"/>
     </row>
     <row r="21" spans="1:32" ht="8.25" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="119"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="31"/>
     </row>
     <row r="22" spans="1:32" ht="8.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="119"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="31"/>
     </row>
     <row r="23" spans="1:32" ht="8.25" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="119"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="31"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="119"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="31"/>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="120"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="34"/>
     </row>
     <row r="26" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="35" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="35" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="35" t="s">
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="35" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="35" t="s">
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="35" t="s">
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="36"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="35" t="s">
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="35" t="s">
+      <c r="V26" s="14"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="35" t="s">
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="35" t="s">
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="37"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="15"/>
     </row>
     <row r="27" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="32">
+      <c r="A27" s="82"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="10">
         <v>2720</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="11">
         <v>50.524999999999999</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="12">
         <v>50.524999999999999</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="16">
         <f ca="1">R27-(25.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0650000000000004</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16">
         <f ca="1">R27-(21.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.1450000000000005</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38">
+        <v>4.1400000000000006</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16">
         <f ca="1">R27-(19*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.1950000000000003</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16">
         <f ca="1">R27-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.4939999999999998</v>
-      </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39">
+        <v>4.4909999999999997</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="17">
         <f ca="1">Sheet2!E1</f>
-        <v>4.5739999999999998</v>
-      </c>
-      <c r="S27" s="40"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="38">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="S27" s="18"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="16">
         <f ca="1">R27-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.4959999999999996</v>
-      </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38">
+        <v>4.49</v>
+      </c>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16">
         <f ca="1">R27-(19*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.1950000000000003</v>
-      </c>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16">
         <f ca="1">R27-(21.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.1429999999999998</v>
-      </c>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38">
+        <v>4.141</v>
+      </c>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16">
         <f ca="1">R27-(25.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
+        <v>4.0630000000000006</v>
+      </c>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="32">
+      <c r="A28" s="82"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="10">
         <v>2740</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="11">
         <v>60</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="12">
         <v>60</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="16">
         <f ca="1">R28-(25.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0140000000000002</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38">
+        <v>4.011000000000001</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
         <f ca="1">R28-(21.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0940000000000003</v>
-      </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38">
+        <v>4.0920000000000005</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16">
         <f ca="1">R28-(19*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.1450000000000005</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38">
+        <v>4.1400000000000006</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16">
         <f ca="1">R28-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.4429999999999996</v>
-      </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="17">
         <f ca="1">Sheet2!E2</f>
-        <v>4.524</v>
-      </c>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="38">
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="S28" s="18"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="16">
         <f ca="1">R28-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.4429999999999996</v>
-      </c>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38">
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16">
         <f ca="1">R28-(19*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.1420000000000003</v>
-      </c>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38">
+        <v>4.1400000000000006</v>
+      </c>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16">
         <f ca="1">R28-(21.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0940000000000003</v>
-      </c>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38">
+        <v>4.0910000000000011</v>
+      </c>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16">
         <f ca="1">R28-(25.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0140000000000002</v>
-      </c>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
+        <v>4.0080000000000009</v>
+      </c>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="35" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35" t="s">
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="35" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="35" t="s">
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="35" t="s">
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="35" t="s">
+      <c r="S29" s="14"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="35" t="s">
+      <c r="V29" s="14"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="35" t="s">
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="35" t="s">
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="37"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="15"/>
     </row>
     <row r="30" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="32">
+      <c r="A30" s="82"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="10">
         <v>780</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="11">
         <v>100</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="12">
         <v>100</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="16">
         <f ca="1">R30-(22*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9590000000000001</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38">
+        <v>3.9570000000000007</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16">
         <f ca="1">R30-(18*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.04</v>
-      </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38">
+        <v>4.0360000000000005</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16">
         <f ca="1">R30-(15.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
         <v>4.0870000000000006</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38">
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16">
         <f ca="1">R30-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.3170000000000002</v>
-      </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="39">
+        <v>4.3180000000000005</v>
+      </c>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="17">
         <f ca="1">Sheet2!E4</f>
-        <v>4.399</v>
-      </c>
-      <c r="S30" s="40"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="38">
+        <v>4.3980000000000006</v>
+      </c>
+      <c r="S30" s="18"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="16">
         <f ca="1">R30-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.3170000000000002</v>
-      </c>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38">
+        <v>4.32</v>
+      </c>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16">
         <f ca="1">R30-(15.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0910000000000002</v>
-      </c>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38">
+        <v>4.0860000000000012</v>
+      </c>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16">
         <f ca="1">R30-(18*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0369999999999999</v>
-      </c>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38">
+        <v>4.0390000000000006</v>
+      </c>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16">
         <f ca="1">R30-(22*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9590000000000001</v>
-      </c>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
+        <v>3.9600000000000004</v>
+      </c>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="32">
+      <c r="A31" s="82"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="10">
         <v>800</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="11">
         <v>120</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="12">
         <v>120</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="16">
         <f t="shared" ref="F31:F35" ca="1" si="0">R31-(22*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9010000000000011</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38">
+        <v>3.9000000000000008</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
         <f t="shared" ref="I31:I35" ca="1" si="1">R31-(18*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9840000000000009</v>
-      </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38">
+        <v>3.979000000000001</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16">
         <f t="shared" ref="L31:L35" ca="1" si="2">R31-(15.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0320000000000009</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38">
+        <v>4.0310000000000015</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16">
         <f t="shared" ref="O31:O35" ca="1" si="3">R31-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.2650000000000006</v>
-      </c>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39">
+        <v>4.2600000000000007</v>
+      </c>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="17">
         <f ca="1">Sheet2!E5</f>
-        <v>4.3430000000000009</v>
-      </c>
-      <c r="S31" s="40"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="38">
+        <v>4.3400000000000007</v>
+      </c>
+      <c r="S31" s="18"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="16">
         <f t="shared" ref="U31:U35" ca="1" si="4">R31-(4*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.261000000000001</v>
-      </c>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38">
+        <v>4.2600000000000007</v>
+      </c>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16">
         <f t="shared" ref="X31:X35" ca="1" si="5">R31-(15.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0340000000000016</v>
-      </c>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38">
+        <v>4.0280000000000014</v>
+      </c>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16">
         <f t="shared" ref="AA31:AA35" ca="1" si="6">R31-(18*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9820000000000011</v>
-      </c>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38">
+        <v>3.9800000000000009</v>
+      </c>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16">
         <f t="shared" ref="AD31:AD35" ca="1" si="7">R31-(22*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.902000000000001</v>
-      </c>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
+        <v>3.8990000000000009</v>
+      </c>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="32">
+      <c r="A32" s="82"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="10">
         <v>820</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="11">
         <v>140</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="12">
         <v>140</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8360000000000007</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38">
+        <v>3.8390000000000004</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9170000000000007</v>
-      </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38">
+        <v>3.9190000000000005</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9660000000000006</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38">
+        <v>3.9670000000000005</v>
+      </c>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16">
         <f t="shared" ca="1" si="3"/>
         <v>4.1960000000000006</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="39">
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="17">
         <f ca="1">Sheet2!E6</f>
         <v>4.2780000000000005</v>
       </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="38">
+      <c r="S32" s="18"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1980000000000004</v>
-      </c>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38">
+        <v>4.1970000000000001</v>
+      </c>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9670000000000005</v>
-      </c>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38">
+        <v>3.9680000000000004</v>
+      </c>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16">
         <f t="shared" ca="1" si="6"/>
         <v>3.9180000000000006</v>
       </c>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38">
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3.8400000000000003</v>
-      </c>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
+        <v>3.8390000000000004</v>
+      </c>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="32">
+      <c r="A33" s="82"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="10">
         <v>840</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="11">
         <v>160</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="12">
         <v>160</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7870000000000013</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38">
+        <v>3.7860000000000014</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8670000000000013</v>
-      </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38">
+        <v>3.8690000000000011</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9170000000000011</v>
-      </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38">
+        <v>3.9150000000000014</v>
+      </c>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16">
         <f t="shared" ca="1" si="3"/>
         <v>4.1490000000000009</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="39">
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="17">
         <f ca="1">Sheet2!E7</f>
         <v>4.2270000000000012</v>
       </c>
-      <c r="S33" s="40"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="38">
+      <c r="S33" s="18"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1460000000000008</v>
-      </c>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38">
+        <v>4.1470000000000011</v>
+      </c>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9160000000000013</v>
-      </c>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38">
+        <v>3.918000000000001</v>
+      </c>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8670000000000013</v>
-      </c>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38">
+        <v>3.8690000000000011</v>
+      </c>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16">
         <f t="shared" ca="1" si="7"/>
         <v>3.7870000000000013</v>
       </c>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="32">
+      <c r="A34" s="82"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="10">
         <v>860</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="11">
         <v>180</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="12">
         <v>180</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38">
+        <v>3.7649999999999997</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8419999999999996</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8919999999999995</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38">
+        <v>3.8969999999999994</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1199999999999992</v>
-      </c>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="39">
+        <v>4.1259999999999994</v>
+      </c>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="17">
         <f ca="1">Sheet2!E8</f>
-        <v>4.2009999999999996</v>
-      </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="38">
+        <v>4.2059999999999995</v>
+      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1219999999999999</v>
-      </c>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38">
+        <v>4.1259999999999994</v>
+      </c>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8919999999999995</v>
-      </c>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38">
+        <v>3.8959999999999995</v>
+      </c>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16">
         <f t="shared" ca="1" si="6"/>
-        <v>3.839</v>
-      </c>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7629999999999995</v>
-      </c>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
+        <v>3.7679999999999993</v>
+      </c>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="32">
+      <c r="A35" s="82"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="10">
         <v>883.31200000000001</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="11">
         <v>200</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="12">
         <v>200</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7539999999999996</v>
-      </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8339999999999996</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38">
+        <v>3.8319999999999999</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8809999999999998</v>
-      </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38">
+        <v>3.8819999999999997</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1129999999999995</v>
-      </c>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="17">
         <f ca="1">Sheet2!E9</f>
-        <v>4.1929999999999996</v>
-      </c>
-      <c r="S35" s="40"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="38">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="S35" s="18"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1119999999999992</v>
-      </c>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8819999999999997</v>
-      </c>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38">
+        <v>3.8829999999999996</v>
+      </c>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16">
         <f t="shared" ca="1" si="6"/>
-        <v>3.831</v>
-      </c>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38">
+        <v>3.83</v>
+      </c>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7509999999999999</v>
-      </c>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
+        <v>3.75</v>
+      </c>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
     </row>
     <row r="36" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="42"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="35"/>
     </row>
     <row r="37" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="42"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="35"/>
     </row>
     <row r="38" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="42"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="35"/>
     </row>
     <row r="39" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="42"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="35"/>
     </row>
     <row r="40" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="42"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="35"/>
     </row>
     <row r="41" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="42"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="35"/>
     </row>
     <row r="42" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="42"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="35"/>
     </row>
     <row r="43" spans="1:32" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="42"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="35"/>
     </row>
     <row r="44" spans="1:32" ht="10.5" customHeight="1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="14"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="116"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="116"/>
+      <c r="AE44" s="116"/>
+      <c r="AF44" s="117"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="17"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="119"/>
+      <c r="T45" s="119"/>
+      <c r="U45" s="119"/>
+      <c r="V45" s="119"/>
+      <c r="W45" s="119"/>
+      <c r="X45" s="119"/>
+      <c r="Y45" s="119"/>
+      <c r="Z45" s="119"/>
+      <c r="AA45" s="119"/>
+      <c r="AB45" s="119"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="119"/>
+      <c r="AE45" s="119"/>
+      <c r="AF45" s="120"/>
     </row>
     <row r="46" spans="1:32" ht="8.25" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="17"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="119"/>
+      <c r="X46" s="119"/>
+      <c r="Y46" s="119"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="119"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
+      <c r="AE46" s="119"/>
+      <c r="AF46" s="120"/>
     </row>
     <row r="47" spans="1:32" ht="8.25" hidden="1" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4735,8 +4741,8 @@
       <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="1:32" ht="10.5" hidden="1" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4769,210 +4775,210 @@
       <c r="AF48" s="3"/>
     </row>
     <row r="49" spans="1:32" ht="9" customHeight="1" thickBot="1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="26"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="102"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="102"/>
+      <c r="V49" s="102"/>
+      <c r="W49" s="102"/>
+      <c r="X49" s="102"/>
+      <c r="Y49" s="102"/>
+      <c r="Z49" s="102"/>
+      <c r="AA49" s="102"/>
+      <c r="AB49" s="102"/>
+      <c r="AC49" s="102"/>
+      <c r="AD49" s="102"/>
+      <c r="AE49" s="102"/>
+      <c r="AF49" s="104"/>
     </row>
     <row r="50" spans="1:32" ht="9" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="28"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="106"/>
     </row>
     <row r="51" spans="1:32" ht="9.75" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="28"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="106"/>
     </row>
     <row r="52" spans="1:32" ht="9" hidden="1" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="28"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="105"/>
+      <c r="X52" s="105"/>
+      <c r="Y52" s="105"/>
+      <c r="Z52" s="105"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="105"/>
+      <c r="AC52" s="105"/>
+      <c r="AD52" s="105"/>
+      <c r="AE52" s="105"/>
+      <c r="AF52" s="106"/>
     </row>
     <row r="53" spans="1:32" ht="3" customHeight="1" thickBot="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="30"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="107"/>
+      <c r="T53" s="107"/>
+      <c r="U53" s="107"/>
+      <c r="V53" s="107"/>
+      <c r="W53" s="107"/>
+      <c r="X53" s="107"/>
+      <c r="Y53" s="107"/>
+      <c r="Z53" s="107"/>
+      <c r="AA53" s="107"/>
+      <c r="AB53" s="107"/>
+      <c r="AC53" s="107"/>
+      <c r="AD53" s="107"/>
+      <c r="AE53" s="107"/>
+      <c r="AF53" s="108"/>
     </row>
     <row r="54" spans="1:32" ht="9.75" customHeight="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="31"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
+      <c r="W54" s="81"/>
+      <c r="X54" s="81"/>
+      <c r="Y54" s="81"/>
+      <c r="Z54" s="81"/>
+      <c r="AA54" s="81"/>
+      <c r="AB54" s="81"/>
+      <c r="AC54" s="81"/>
+      <c r="AD54" s="81"/>
+      <c r="AE54" s="81"/>
+      <c r="AF54" s="81"/>
     </row>
     <row r="55" spans="1:32">
       <c r="C55" s="2" t="s">
@@ -4991,15 +4997,186 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="A54:AF54"/>
+    <mergeCell ref="A8:B43"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H9:N10"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="A44:B48"/>
+    <mergeCell ref="A49:B53"/>
+    <mergeCell ref="C49:AF53"/>
+    <mergeCell ref="T9:AF10"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="C44:AF46"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:AF5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AF6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AF7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:AF8"/>
+    <mergeCell ref="F6:P6"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
@@ -5024,186 +5201,15 @@
     <mergeCell ref="R38:T38"/>
     <mergeCell ref="U38:W38"/>
     <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AF6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AF7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:AF8"/>
-    <mergeCell ref="F6:P6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="A4:AF4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:AF5"/>
-    <mergeCell ref="A54:AF54"/>
-    <mergeCell ref="A8:B43"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="H9:N10"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="A44:B48"/>
-    <mergeCell ref="A49:B53"/>
-    <mergeCell ref="C49:AF53"/>
-    <mergeCell ref="T9:AF10"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="C44:AF46"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.59027777777777801" right="0.31388888888888899" top="0.74791666666666701" bottom="0.5" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -5239,16 +5245,16 @@
         <v>0.1</v>
       </c>
       <c r="D1" s="6">
-        <f t="shared" ref="D1:D45" si="0">B1-C1</f>
+        <f t="shared" ref="D1:D9" si="0">B1-C1</f>
         <v>4.5720000000000001</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">D1+G1</f>
-        <v>4.5739999999999998</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="G1">
         <f ca="1">RANDBETWEEN(-4,4)*0.001</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75">
@@ -5266,12 +5272,12 @@
         <v>4.5200000000000005</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E45" ca="1" si="1">D2+G2</f>
-        <v>4.524</v>
+        <f t="shared" ref="E2:E9" ca="1" si="1">D2+G2</f>
+        <v>4.5200000000000005</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G46" ca="1" si="2">RANDBETWEEN(-4,4)*0.001</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" ref="G2:G9" ca="1" si="2">RANDBETWEEN(-4,4)*0.001</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
@@ -5290,11 +5296,11 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4619999999999997</v>
+        <v>4.46</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
@@ -5313,11 +5319,11 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.399</v>
+        <v>4.3980000000000006</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>-1E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
@@ -5336,11 +5342,11 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3430000000000009</v>
+        <v>4.3400000000000007</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
@@ -5405,11 +5411,11 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2009999999999996</v>
+        <v>4.2059999999999995</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>-1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
@@ -5428,11 +5434,11 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1929999999999996</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
